--- a/biology/Zoologie/Aslia/Aslia.xlsx
+++ b/biology/Zoologie/Aslia/Aslia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aslia est un genre d'holothuries (concombres de mer) de la famille des Cucumariidae. Ils sont parfois appelés « lèche-doigts ».
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des concombres de mer sessiles et cryptiques, dont le corps est généralement dissimulé dans une anfractuosité ou dans le sédiment, ne laissant dépasser que la bouche et les grands tentacules arborescents qui l'entourent. Ceux-ci lui servent à capturer le plancton et la matière organique qui dérive dans le courant ; pour s'en nourrir, ces bras se rapportent cycliquement à la bouche, d'où le nom vernaculaire de « lèche-doigts ».
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (9 juillet 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (9 juillet 2014) :
 Aslia forbesi (Bell, 1886)
 Aslia lefevrii (Barrois, 1882)
 Aslia punctata (Ludwig, 1875)
